--- a/experiment/quadratic/ex9_2_3/compare/C-Estacionario/ex9_2_3_C-Estacionario.xlsx
+++ b/experiment/quadratic/ex9_2_3/compare/C-Estacionario/ex9_2_3_C-Estacionario.xlsx
@@ -494,13 +494,13 @@
         <v>-548.4244137329921</v>
       </c>
       <c r="E2">
-        <v>0.00430533</v>
+        <v>0.003540711</v>
       </c>
       <c r="F2">
-        <v>0.01107387</v>
+        <v>0.022019222</v>
       </c>
       <c r="G2">
-        <v>0.005176371517671518</v>
+        <v>0.0045629535242451965</v>
       </c>
       <c r="H2">
         <v>2310</v>
@@ -535,13 +535,13 @@
         <v>-1201.533440261706</v>
       </c>
       <c r="E3">
-        <v>0.00424629</v>
+        <v>0.003822752</v>
       </c>
       <c r="F3">
-        <v>0.01020924</v>
+        <v>0.011235087</v>
       </c>
       <c r="G3">
-        <v>0.005168060403726708</v>
+        <v>0.0051704202712215324</v>
       </c>
       <c r="H3">
         <v>3021</v>
@@ -576,13 +576,13 @@
         <v>-548.4244264252852</v>
       </c>
       <c r="E4">
-        <v>0.00382689</v>
+        <v>0.003832622</v>
       </c>
       <c r="F4">
-        <v>0.00841293</v>
+        <v>0.035883543</v>
       </c>
       <c r="G4">
-        <v>0.00452929145285935</v>
+        <v>0.004764864257633587</v>
       </c>
       <c r="H4">
         <v>4616</v>
